--- a/Code/Optimiser/SolutionChecker.xlsx
+++ b/Code/Optimiser/SolutionChecker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Documenten\GitHub\OWFSim\Code\Optimiser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214C89AD-8C13-49AB-A20D-8F8107337E33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DEC8CF-5DFC-44A1-9D80-7DBF5385DEC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="840" windowWidth="19440" windowHeight="15000" xr2:uid="{9C2CF203-BE44-4091-AD19-7EBDAA122E1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9C2CF203-BE44-4091-AD19-7EBDAA122E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
   <si>
     <t>Period</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Preq</t>
   </si>
   <si>
-    <t>s0</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
     <t>Res</t>
   </si>
   <si>
@@ -76,15 +70,6 @@
     <t>Asset: 1</t>
   </si>
   <si>
-    <t>s3</t>
-  </si>
-  <si>
-    <t>f0</t>
-  </si>
-  <si>
-    <t>f1</t>
-  </si>
-  <si>
     <t>0: 0, 0, 0</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
     <t>Total return: -3.56583e+06</t>
   </si>
   <si>
-    <t>f3</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -298,37 +280,7 @@
     <t>FINAL COST</t>
   </si>
   <si>
-    <t>s5</t>
-  </si>
-  <si>
-    <t>s6</t>
-  </si>
-  <si>
-    <t>s2f2</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
     <t>TPP</t>
-  </si>
-  <si>
-    <t>s8</t>
-  </si>
-  <si>
-    <t>s9</t>
-  </si>
-  <si>
-    <t>s7f7</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>f9</t>
   </si>
 </sst>
 </file>
@@ -358,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,31 +337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF990000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -443,6 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +410,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
       <color rgb="FF990000"/>
-      <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
   <extLst>
@@ -766,7 +725,7 @@
   <dimension ref="A1:CO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="AA3" sqref="AA3:AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,40 +1080,39 @@
       <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>5</v>
+      <c r="C3" s="10">
+        <v>0</v>
       </c>
       <c r="H3" s="5">
         <f>B3+$A$5</f>
         <v>24</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="11"/>
+      <c r="I3" s="13">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
       <c r="N3" s="5">
-        <f t="shared" ref="I3:BT6" si="0">H3+$A$5</f>
+        <f t="shared" ref="N3:BP6" si="0">H3+$A$5</f>
         <v>48</v>
       </c>
-      <c r="O3" s="12"/>
       <c r="T3" s="5">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
+      <c r="U3" s="11">
+        <v>3</v>
+      </c>
       <c r="Z3" s="5">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="AB3" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="AB3" s="11"/>
       <c r="AF3" s="5">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="AG3" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="AL3" s="5">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -1180,7 +1138,7 @@
         <v>264</v>
       </c>
       <c r="BV3" s="5">
-        <f t="shared" ref="BU3:CM16" si="1">BP3+$A$5</f>
+        <f t="shared" ref="BV3:CH16" si="1">BP3+$A$5</f>
         <v>288</v>
       </c>
       <c r="CB3" s="5">
@@ -1194,7 +1152,7 @@
     </row>
     <row r="4" spans="1:91" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1204,31 +1162,34 @@
         <f t="shared" ref="H4:H18" si="2">B4+$A$5</f>
         <v>25</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="4"/>
       <c r="N4" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="O4" s="12"/>
+      <c r="O4" s="14">
+        <v>6</v>
+      </c>
       <c r="T4" s="5">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
+      <c r="U4" s="11"/>
       <c r="Z4" s="5">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="AB4" s="15"/>
+      <c r="AB4" s="11"/>
       <c r="AF4" s="5">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="AH4" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="AL4" s="5">
         <f t="shared" si="0"/>
         <v>145</v>
+      </c>
+      <c r="AN4" s="16">
+        <v>9</v>
       </c>
       <c r="AR4" s="5">
         <f t="shared" si="0"/>
@@ -1275,32 +1236,34 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="J5" s="11"/>
+      <c r="J5" s="4"/>
       <c r="N5" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O5" s="12"/>
+      <c r="O5" s="14"/>
       <c r="T5" s="5">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
+      <c r="U5" s="11"/>
       <c r="Z5" s="5">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="AB5" s="15"/>
+      <c r="AA5" s="15">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="11"/>
       <c r="AF5" s="5">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="AH5" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="AL5" s="5">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
+      <c r="AN5" s="16"/>
       <c r="AR5" s="5">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -1343,30 +1306,32 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="4"/>
       <c r="N6" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="O6" s="12"/>
+      <c r="O6" s="14"/>
       <c r="T6" s="5">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
+      <c r="U6" s="11"/>
       <c r="Z6" s="5">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="AB6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="11"/>
       <c r="AF6" s="5">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="AH6" s="9"/>
       <c r="AL6" s="5">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
+      <c r="AN6" s="16"/>
       <c r="AR6" s="5">
         <f t="shared" si="0"/>
         <v>171</v>
@@ -1409,30 +1374,32 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="J7" s="11"/>
+      <c r="J7" s="4"/>
       <c r="N7" s="5">
         <f t="shared" ref="N7:N18" si="3">H7+$A$5</f>
         <v>52</v>
       </c>
-      <c r="O7" s="12"/>
+      <c r="O7" s="14"/>
       <c r="T7" s="5">
         <f t="shared" ref="T7:T18" si="4">N7+$A$5</f>
         <v>76</v>
       </c>
+      <c r="U7" s="11"/>
       <c r="Z7" s="5">
         <f t="shared" ref="Z7:Z18" si="5">T7+$A$5</f>
         <v>100</v>
       </c>
-      <c r="AB7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="11"/>
       <c r="AF7" s="5">
         <f t="shared" ref="AF7:AF18" si="6">Z7+$A$5</f>
         <v>124</v>
       </c>
-      <c r="AH7" s="9"/>
       <c r="AL7" s="5">
         <f t="shared" ref="AL7:AL18" si="7">AF7+$A$5</f>
         <v>148</v>
       </c>
+      <c r="AN7" s="16"/>
       <c r="AR7" s="5">
         <f t="shared" ref="AR7:AR18" si="8">AL7+$A$5</f>
         <v>172</v>
@@ -1475,30 +1442,32 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="4"/>
       <c r="N8" s="5">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="O8" s="12"/>
+      <c r="O8" s="14"/>
       <c r="T8" s="5">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
+      <c r="U8" s="11"/>
       <c r="Z8" s="5">
         <f t="shared" si="5"/>
         <v>101</v>
       </c>
-      <c r="AB8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="11"/>
       <c r="AF8" s="5">
         <f t="shared" si="6"/>
         <v>125</v>
       </c>
-      <c r="AH8" s="9"/>
       <c r="AL8" s="5">
         <f t="shared" si="7"/>
         <v>149</v>
       </c>
+      <c r="AN8" s="16"/>
       <c r="AR8" s="5">
         <f t="shared" si="8"/>
         <v>173</v>
@@ -1536,39 +1505,37 @@
       <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="C9" s="10"/>
       <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J9" s="11"/>
+      <c r="J9" s="4"/>
       <c r="N9" s="5">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="O9" s="12"/>
+      <c r="O9" s="14"/>
       <c r="T9" s="5">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
+      <c r="U9" s="11"/>
       <c r="Z9" s="5">
         <f t="shared" si="5"/>
         <v>102</v>
       </c>
-      <c r="AB9" s="15" t="s">
-        <v>90</v>
-      </c>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="11"/>
       <c r="AF9" s="5">
         <f t="shared" si="6"/>
         <v>126</v>
       </c>
-      <c r="AH9" s="9"/>
       <c r="AL9" s="5">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
+      <c r="AN9" s="16"/>
       <c r="AR9" s="5">
         <f t="shared" si="8"/>
         <v>174</v>
@@ -1606,39 +1573,42 @@
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>6</v>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="J10" s="11"/>
+      <c r="J10" s="4"/>
       <c r="N10" s="5">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="O10" s="12"/>
+      <c r="O10" s="14"/>
       <c r="T10" s="5">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
+      <c r="U10" s="11"/>
       <c r="Z10" s="5">
         <f t="shared" si="5"/>
         <v>103</v>
       </c>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="11"/>
       <c r="AF10" s="5">
         <f t="shared" si="6"/>
         <v>127</v>
       </c>
-      <c r="AH10" s="9"/>
       <c r="AL10" s="5">
         <f t="shared" si="7"/>
         <v>151</v>
       </c>
-      <c r="AN10" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="AN10" s="16"/>
       <c r="AR10" s="5">
         <f t="shared" si="8"/>
         <v>175</v>
@@ -1676,35 +1646,36 @@
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="10"/>
       <c r="H11" s="5">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="J11" s="11"/>
+      <c r="J11" s="4"/>
       <c r="N11" s="5">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-      <c r="O11" s="12"/>
       <c r="T11" s="5">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
+      <c r="U11" s="11"/>
       <c r="Z11" s="5">
         <f t="shared" si="5"/>
         <v>104</v>
       </c>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="11"/>
       <c r="AF11" s="5">
         <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="AH11" s="9"/>
       <c r="AL11" s="5">
         <f t="shared" si="7"/>
         <v>152</v>
       </c>
-      <c r="AN11" s="14"/>
       <c r="AR11" s="5">
         <f t="shared" si="8"/>
         <v>176</v>
@@ -1742,35 +1713,36 @@
       <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="J12" s="11"/>
+      <c r="J12" s="4"/>
       <c r="N12" s="5">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="O12" s="12"/>
       <c r="T12" s="5">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
+      <c r="U12" s="11"/>
       <c r="Z12" s="5">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="11"/>
       <c r="AF12" s="5">
         <f t="shared" si="6"/>
         <v>129</v>
       </c>
-      <c r="AH12" s="9"/>
       <c r="AL12" s="5">
         <f t="shared" si="7"/>
         <v>153</v>
       </c>
-      <c r="AN12" s="14"/>
       <c r="AR12" s="5">
         <f t="shared" si="8"/>
         <v>177</v>
@@ -1808,40 +1780,36 @@
       <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
       <c r="H13" s="5">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="J13" s="11"/>
+      <c r="J13" s="4"/>
       <c r="N13" s="5">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="O13" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="T13" s="5">
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
+      <c r="U13" s="11"/>
       <c r="Z13" s="5">
         <f t="shared" si="5"/>
         <v>106</v>
       </c>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="11"/>
       <c r="AF13" s="5">
         <f t="shared" si="6"/>
         <v>130</v>
       </c>
-      <c r="AH13" s="9"/>
       <c r="AL13" s="5">
         <f t="shared" si="7"/>
         <v>154</v>
       </c>
-      <c r="AN13" s="14"/>
       <c r="AR13" s="5">
         <f t="shared" si="8"/>
         <v>178</v>
@@ -1879,41 +1847,36 @@
       <c r="B14" s="5">
         <v>11</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="10"/>
       <c r="H14" s="5">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="J14" s="11"/>
+      <c r="J14" s="4"/>
       <c r="N14" s="5">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="T14" s="5">
         <f t="shared" si="4"/>
         <v>83</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="U14" s="11"/>
       <c r="Z14" s="5">
         <f t="shared" si="5"/>
         <v>107</v>
       </c>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="11"/>
       <c r="AF14" s="5">
         <f t="shared" si="6"/>
         <v>131</v>
       </c>
-      <c r="AH14" s="9"/>
       <c r="AL14" s="5">
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
-      <c r="AN14" s="14"/>
       <c r="AR14" s="5">
         <f t="shared" si="8"/>
         <v>179</v>
@@ -1951,29 +1914,33 @@
       <c r="B15" s="5">
         <v>12</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="10"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="P15" s="12"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
-      <c r="U15" s="15"/>
+      <c r="U15" s="11"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
@@ -1982,7 +1949,10 @@
         <f t="shared" si="5"/>
         <v>108</v>
       </c>
-      <c r="AA15" s="5"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="9">
+        <v>7</v>
+      </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
@@ -1990,12 +1960,8 @@
         <f t="shared" si="6"/>
         <v>132</v>
       </c>
-      <c r="AG15" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>96</v>
-      </c>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
@@ -2003,7 +1969,8 @@
         <f t="shared" si="7"/>
         <v>156</v>
       </c>
-      <c r="AN15" s="14"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
@@ -2044,29 +2011,32 @@
       <c r="B16" s="5">
         <v>13</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="10"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="5">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5">
         <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="P16" s="12"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="U16" s="15"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
@@ -2075,7 +2045,9 @@
         <f t="shared" si="5"/>
         <v>109</v>
       </c>
-      <c r="AA16" s="5"/>
+      <c r="AB16" s="15">
+        <v>8</v>
+      </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
@@ -2083,9 +2055,7 @@
         <f t="shared" si="6"/>
         <v>133</v>
       </c>
-      <c r="AG16" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="AH16" s="5"/>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
@@ -2093,9 +2063,10 @@
         <f t="shared" si="7"/>
         <v>157</v>
       </c>
-      <c r="AN16" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="AM16" s="16">
+        <v>9</v>
+      </c>
+      <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5"/>
@@ -2137,38 +2108,34 @@
       <c r="B17" s="5">
         <v>14</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="4"/>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
+      <c r="J17" s="4"/>
       <c r="N17" s="5">
         <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="P17" s="12"/>
       <c r="T17" s="5">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="U17" s="15"/>
       <c r="Z17" s="5">
         <f t="shared" si="5"/>
         <v>110</v>
       </c>
+      <c r="AB17" s="15"/>
       <c r="AF17" s="5">
         <f t="shared" si="6"/>
         <v>134</v>
       </c>
-      <c r="AG17" s="9"/>
       <c r="AL17" s="5">
         <f t="shared" si="7"/>
         <v>158</v>
       </c>
-      <c r="AM17" s="14" t="s">
-        <v>94</v>
-      </c>
+      <c r="AM17" s="16"/>
       <c r="AR17" s="5">
         <f t="shared" si="8"/>
         <v>182</v>
@@ -2207,36 +2174,36 @@
       <c r="B18" s="5">
         <v>15</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="4"/>
       <c r="H18" s="5">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
+      <c r="J18" s="13">
+        <v>2</v>
+      </c>
       <c r="N18" s="5">
         <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="P18" s="12"/>
       <c r="T18" s="5">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="U18" s="15"/>
       <c r="Z18" s="5">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
+      <c r="AB18" s="15"/>
       <c r="AF18" s="5">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-      <c r="AG18" s="9"/>
       <c r="AL18" s="5">
         <f t="shared" si="7"/>
         <v>159</v>
       </c>
-      <c r="AM18" s="14"/>
+      <c r="AM18" s="16"/>
       <c r="AR18" s="5">
         <f t="shared" si="8"/>
         <v>183</v>
@@ -2274,28 +2241,34 @@
       <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="C19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="12">
         <f t="shared" ref="H19:H26" si="16">B19+$A$5</f>
         <v>40</v>
       </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5">
         <f t="shared" ref="N19:N26" si="17">H19+$A$5</f>
         <v>64</v>
       </c>
-      <c r="P19" s="12"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5">
         <f t="shared" ref="T19:T26" si="18">N19+$A$5</f>
         <v>88</v>
       </c>
-      <c r="U19" s="15"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -2304,6 +2277,7 @@
         <f t="shared" ref="Z19:Z26" si="19">T19+$A$5</f>
         <v>112</v>
       </c>
+      <c r="AB19" s="15"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
@@ -2311,7 +2285,7 @@
         <f t="shared" ref="AF19:AF26" si="20">Z19+$A$5</f>
         <v>136</v>
       </c>
-      <c r="AG19" s="9"/>
+      <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
@@ -2319,7 +2293,8 @@
         <f t="shared" ref="AL19:AL26" si="21">AF19+$A$5</f>
         <v>160</v>
       </c>
-      <c r="AM19" s="14"/>
+      <c r="AM19" s="16"/>
+      <c r="AN19" s="5"/>
       <c r="AO19" s="5"/>
       <c r="AP19" s="5"/>
       <c r="AQ19" s="5"/>
@@ -2361,8 +2336,8 @@
       <c r="B20" s="5">
         <v>17</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="H20" s="4">
+      <c r="C20" s="4"/>
+      <c r="H20" s="12">
         <f t="shared" si="16"/>
         <v>41</v>
       </c>
@@ -2370,28 +2345,25 @@
         <f t="shared" si="17"/>
         <v>65</v>
       </c>
-      <c r="P20" s="12"/>
+      <c r="P20" s="14"/>
       <c r="T20" s="5">
         <f t="shared" si="18"/>
         <v>89</v>
       </c>
-      <c r="U20" s="15" t="s">
-        <v>90</v>
-      </c>
       <c r="Z20" s="5">
         <f t="shared" si="19"/>
         <v>113</v>
       </c>
-      <c r="AF20" s="4">
+      <c r="AB20" s="15"/>
+      <c r="AF20" s="12">
         <f t="shared" si="20"/>
         <v>137</v>
       </c>
-      <c r="AG20" s="9"/>
       <c r="AL20" s="5">
         <f t="shared" si="21"/>
         <v>161</v>
       </c>
-      <c r="AM20" s="14"/>
+      <c r="AM20" s="16"/>
       <c r="AR20" s="5">
         <f t="shared" si="22"/>
         <v>185</v>
@@ -2413,7 +2385,7 @@
         <v>281</v>
       </c>
       <c r="BV20" s="5">
-        <f t="shared" ref="BV20:BV26" si="28">BP20+$A$5</f>
+        <f t="shared" ref="BV20:BV21" si="28">BP20+$A$5</f>
         <v>305</v>
       </c>
       <c r="CB20" s="5">
@@ -2430,8 +2402,8 @@
       <c r="B21" s="5">
         <v>18</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="H21" s="4">
+      <c r="C21" s="4"/>
+      <c r="H21" s="12">
         <f t="shared" si="16"/>
         <v>42</v>
       </c>
@@ -2439,7 +2411,7 @@
         <f t="shared" si="17"/>
         <v>66</v>
       </c>
-      <c r="P21" s="12"/>
+      <c r="P21" s="14"/>
       <c r="T21" s="5">
         <f t="shared" si="18"/>
         <v>90</v>
@@ -2448,19 +2420,16 @@
         <f t="shared" si="19"/>
         <v>114</v>
       </c>
-      <c r="AA21" s="15" t="s">
-        <v>88</v>
-      </c>
+      <c r="AB21" s="15"/>
       <c r="AF21" s="5">
         <f t="shared" si="20"/>
         <v>138</v>
       </c>
-      <c r="AG21" s="9"/>
       <c r="AL21" s="5">
         <f t="shared" si="21"/>
         <v>162</v>
       </c>
-      <c r="AM21" s="14"/>
+      <c r="AM21" s="16"/>
       <c r="AR21" s="5">
         <f t="shared" si="22"/>
         <v>186</v>
@@ -2498,24 +2467,33 @@
       <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="11"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="4">
         <f t="shared" si="16"/>
         <v>43</v>
       </c>
+      <c r="I22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="P22" s="12"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5">
         <f t="shared" si="18"/>
         <v>91</v>
       </c>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -2523,7 +2501,7 @@
         <f t="shared" si="19"/>
         <v>115</v>
       </c>
-      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
@@ -2531,15 +2509,16 @@
         <f t="shared" si="20"/>
         <v>139</v>
       </c>
-      <c r="AG22" s="9"/>
+      <c r="AH22" s="5"/>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
-      <c r="AL22" s="4">
+      <c r="AL22" s="12">
         <f t="shared" si="21"/>
         <v>163</v>
       </c>
-      <c r="AM22" s="14"/>
+      <c r="AM22" s="16"/>
+      <c r="AN22" s="5"/>
       <c r="AO22" s="5"/>
       <c r="AP22" s="5"/>
       <c r="AQ22" s="5"/>
@@ -2581,8 +2560,8 @@
       <c r="B23" s="5">
         <v>20</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="H23" s="4">
+      <c r="C23" s="4"/>
+      <c r="H23" s="12">
         <f t="shared" si="16"/>
         <v>44</v>
       </c>
@@ -2590,7 +2569,7 @@
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="P23" s="12"/>
+      <c r="P23" s="14"/>
       <c r="T23" s="5">
         <f t="shared" si="18"/>
         <v>92</v>
@@ -2599,19 +2578,16 @@
         <f t="shared" si="19"/>
         <v>116</v>
       </c>
-      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
       <c r="AF23" s="5">
         <f t="shared" si="20"/>
         <v>140</v>
       </c>
-      <c r="AG23" s="9"/>
       <c r="AL23" s="5">
         <f t="shared" si="21"/>
         <v>164</v>
       </c>
-      <c r="AM23" s="14" t="s">
-        <v>97</v>
-      </c>
+      <c r="AM23" s="16"/>
       <c r="AR23" s="5">
         <f t="shared" si="22"/>
         <v>188</v>
@@ -2633,7 +2609,7 @@
         <v>284</v>
       </c>
       <c r="BV23" s="5">
-        <f t="shared" ref="BV23:BV26" si="29">BP23+$A$5</f>
+        <f t="shared" ref="BV23:BV24" si="29">BP23+$A$5</f>
         <v>308</v>
       </c>
       <c r="CB23" s="5">
@@ -2650,10 +2626,8 @@
       <c r="B24" s="5">
         <v>21</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="C24" s="4"/>
+      <c r="H24" s="12">
         <f t="shared" si="16"/>
         <v>45</v>
       </c>
@@ -2661,7 +2635,7 @@
         <f t="shared" si="17"/>
         <v>69</v>
       </c>
-      <c r="P24" s="12"/>
+      <c r="P24" s="14"/>
       <c r="T24" s="5">
         <f t="shared" si="18"/>
         <v>93</v>
@@ -2670,13 +2644,12 @@
         <f t="shared" si="19"/>
         <v>117</v>
       </c>
-      <c r="AA24" s="15"/>
-      <c r="AF24" s="4">
+      <c r="AB24" s="15"/>
+      <c r="AF24" s="12">
         <f t="shared" si="20"/>
         <v>141</v>
       </c>
-      <c r="AG24" s="9"/>
-      <c r="AL24" s="4">
+      <c r="AL24" s="12">
         <f t="shared" si="21"/>
         <v>165</v>
       </c>
@@ -2714,31 +2687,36 @@
       </c>
     </row>
     <row r="25" spans="1:86" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+      <c r="B25" s="12">
         <v>22</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="C25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25" s="4">
         <f t="shared" si="16"/>
         <v>46</v>
       </c>
-      <c r="I25" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="I25" s="5"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5">
         <f t="shared" si="17"/>
         <v>70</v>
       </c>
-      <c r="P25" s="12"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5">
         <f t="shared" si="18"/>
         <v>94</v>
+      </c>
+      <c r="U25" s="9">
+        <v>7</v>
       </c>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
@@ -2747,23 +2725,24 @@
         <f t="shared" si="19"/>
         <v>118</v>
       </c>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="5"/>
+      <c r="AB25" s="15"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
-      <c r="AF25" s="4">
+      <c r="AF25" s="12">
         <f t="shared" si="20"/>
         <v>142</v>
       </c>
-      <c r="AG25" s="9"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
-      <c r="AL25" s="4">
+      <c r="AL25" s="12">
         <f t="shared" si="21"/>
         <v>166</v>
       </c>
+      <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
@@ -2803,39 +2782,34 @@
     </row>
     <row r="26" spans="1:86" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
-      <c r="B26" s="4">
+      <c r="B26" s="12">
         <v>23</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="H26" s="4">
+      <c r="H26" s="12">
         <f t="shared" si="16"/>
         <v>47</v>
       </c>
-      <c r="I26" s="12"/>
       <c r="N26" s="5">
         <f t="shared" si="17"/>
         <v>71</v>
       </c>
-      <c r="P26" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="T26" s="5">
         <f t="shared" si="18"/>
         <v>95</v>
       </c>
+      <c r="V26" s="11">
+        <v>3</v>
+      </c>
       <c r="Z26" s="5">
         <f t="shared" si="19"/>
         <v>119</v>
       </c>
-      <c r="AA26" s="15"/>
-      <c r="AF26" s="4">
+      <c r="AB26" s="15"/>
+      <c r="AF26" s="12">
         <f t="shared" si="20"/>
         <v>143</v>
       </c>
-      <c r="AG26" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL26" s="4">
+      <c r="AL26" s="12">
         <f t="shared" si="21"/>
         <v>167</v>
       </c>
@@ -2900,10 +2874,10 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
         <v>8</v>
-      </c>
-      <c r="P1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -2919,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -2934,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -2949,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2964,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -2976,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -2997,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -3015,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -3032,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -3049,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -3060,12 +3034,12 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3089,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -3115,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -3141,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -3152,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="P15" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="U15" s="6"/>
     </row>
@@ -3164,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="P16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="10:16" x14ac:dyDescent="0.25">
@@ -3175,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.25">
@@ -3186,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.25">
@@ -3197,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="10:16" x14ac:dyDescent="0.25">
@@ -3208,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="10:16" x14ac:dyDescent="0.25">
@@ -3219,7 +3193,7 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="10:16" x14ac:dyDescent="0.25">
@@ -3230,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="10:16" x14ac:dyDescent="0.25">
@@ -3241,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="P23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="10:16" x14ac:dyDescent="0.25">
@@ -3252,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="10:16" x14ac:dyDescent="0.25">
@@ -3263,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="10:16" x14ac:dyDescent="0.25">
@@ -3274,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="10:16" x14ac:dyDescent="0.25">
@@ -3285,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="10:16" x14ac:dyDescent="0.25">
@@ -3296,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="P28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="10:16" x14ac:dyDescent="0.25">
@@ -3307,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="10:16" x14ac:dyDescent="0.25">
@@ -3318,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="P30" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="10:16" x14ac:dyDescent="0.25">
@@ -3329,165 +3303,165 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="P34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J38" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J39" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J40" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J41" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J42" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J43" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J44" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J46" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="10:16" x14ac:dyDescent="0.25">
       <c r="J48" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3497,10 +3471,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C642237E-D03A-45EC-B312-ECA8F260C28A}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,22 +3485,22 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B1">
         <v>540</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I1">
         <f>SUM(I6:I35)</f>
-        <v>-418757.80319656123</v>
+        <v>-443598.90343797702</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>1750</v>
@@ -3540,7 +3514,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B3">
         <v>0.99997246500000003</v>
@@ -3548,28 +3522,28 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3639,24 +3613,25 @@
         <v>0.99994493075817625</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <f>48-14</f>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>11250</v>
+        <v>1750</v>
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>1709.9058315964814</v>
+        <v>16609.085299893308</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3668,24 +3643,25 @@
         <v>0.9999173972745079</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <f>48-3-13</f>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>11250</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>20388.315730427217</v>
+        <v>6029.5019055652829</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3697,24 +3673,24 @@
         <v>0.99988986454897388</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>163000</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>17148.111177014904</v>
+        <v>-162982.04792148274</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3726,24 +3702,24 @@
         <v>0.99986233258155355</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>161250</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>-154748.69321364706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3773,6 +3749,38 @@
       <c r="I12">
         <f t="shared" si="2"/>
         <v>-3499.4218048027906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>SUM(C6:C12)</f>
+        <v>97</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:F15" si="3">SUM(D6:D12)</f>
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
